--- a/daily_wl&meteo_vpd_data.xlsx
+++ b/daily_wl&meteo_vpd_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,16 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>vpd</t>
         </is>
       </c>
@@ -474,20 +484,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>41487</v>
+        <v>41511</v>
       </c>
       <c r="C2" t="n">
-        <v>12.85</v>
+        <v>11.25</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-0.4813327981666671</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.5190982447104791</v>
+        <v>1188.982978408122</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1309.12227472864</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2535908476908508</v>
       </c>
     </row>
     <row r="3">
@@ -495,20 +513,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>41488</v>
+        <v>41512</v>
       </c>
       <c r="C3" t="n">
-        <v>11.35</v>
+        <v>10.75</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>89.5</v>
       </c>
       <c r="E3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.4916947500000002</v>
+      </c>
       <c r="G3" t="n">
-        <v>0.3090207737950095</v>
+        <v>1175.44415719192</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1302.02440134432</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1355611104240702</v>
       </c>
     </row>
     <row r="4">
@@ -516,20 +542,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>41489</v>
+        <v>41513</v>
       </c>
       <c r="C4" t="n">
-        <v>10.85</v>
+        <v>13.75</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.4984080450000005</v>
+      </c>
       <c r="G4" t="n">
-        <v>0.1039746076198762</v>
+        <v>1166.708590436827</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1297.418220581114</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4561275715770947</v>
       </c>
     </row>
     <row r="5">
@@ -537,20 +571,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>41490</v>
+        <v>41514</v>
       </c>
       <c r="C5" t="n">
-        <v>11.95</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>92.5</v>
+        <v>83</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.505052322583334</v>
+      </c>
       <c r="G5" t="n">
-        <v>0.1048459759824987</v>
+        <v>1158.09084449639</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1292.853549788126</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2717628261022997</v>
       </c>
     </row>
     <row r="6">
@@ -558,20 +600,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41491</v>
+        <v>41515</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="D6" t="n">
-        <v>81.5</v>
+        <v>84.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>6.800000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.5059663823333338</v>
+      </c>
       <c r="G6" t="n">
-        <v>0.3035066412609617</v>
+        <v>1156.907481516007</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1292.225130706825</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2493963080721864</v>
       </c>
     </row>
     <row r="7">
@@ -579,20 +629,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41492</v>
+        <v>41516</v>
       </c>
       <c r="C7" t="n">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.5085351710833338</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.1321767397742839</v>
+        <v>1153.584709694915</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1290.458495333775</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1959875508190729</v>
       </c>
     </row>
     <row r="8">
@@ -600,20 +658,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>41493</v>
+        <v>41517</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>15.05</v>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.515410375</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.1969071208658741</v>
+        <v>1144.712194893297</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1285.725974145315</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5132530660971444</v>
       </c>
     </row>
     <row r="9">
@@ -621,20 +687,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41494</v>
+        <v>41518</v>
       </c>
       <c r="C9" t="n">
-        <v>11.95</v>
+        <v>17.8</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.5240400157500001</v>
+      </c>
       <c r="G9" t="n">
-        <v>0.419383903929995</v>
+        <v>1133.618369250074</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1279.777112510194</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.7337434806598251</v>
       </c>
     </row>
     <row r="10">
@@ -642,20 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>41495</v>
+        <v>41519</v>
       </c>
       <c r="C10" t="n">
-        <v>14.85</v>
+        <v>18.15</v>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.5327231916666669</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.6924683072514466</v>
+        <v>1122.50410534907</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1273.781642356856</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4792133301879686</v>
       </c>
     </row>
     <row r="11">
@@ -663,20 +745,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>41496</v>
+        <v>41520</v>
       </c>
       <c r="C11" t="n">
-        <v>11.3</v>
+        <v>20.65</v>
       </c>
       <c r="D11" t="n">
-        <v>91.5</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.5398952166666668</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.1138253835489871</v>
+        <v>1113.360897478051</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1268.822264948496</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.095317101304147</v>
       </c>
     </row>
     <row r="12">
@@ -684,20 +774,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>41497</v>
+        <v>41521</v>
       </c>
       <c r="C12" t="n">
-        <v>14.95</v>
+        <v>24.6</v>
       </c>
       <c r="D12" t="n">
-        <v>75.5</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.5495123574166669</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.4164667794397254</v>
+        <v>1101.153147688985</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1262.161765668174</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.103295304075329</v>
       </c>
     </row>
     <row r="13">
@@ -705,20 +803,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>41498</v>
+        <v>41522</v>
       </c>
       <c r="C13" t="n">
-        <v>12.25</v>
+        <v>13.8</v>
       </c>
       <c r="D13" t="n">
-        <v>70.5</v>
+        <v>91</v>
       </c>
       <c r="E13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.5552001065000004</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.4206266450812541</v>
+        <v>1093.961773122769</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1258.217056013558</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1420177148389838</v>
       </c>
     </row>
     <row r="14">
@@ -726,20 +832,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>41499</v>
+        <v>41523</v>
       </c>
       <c r="C14" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="D14" t="n">
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.5588894657500002</v>
+      </c>
       <c r="G14" t="n">
-        <v>0.1909272141128333</v>
+        <v>1089.30846611544</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1255.656107130556</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1542061964033312</v>
       </c>
     </row>
     <row r="15">
@@ -747,20 +861,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>41500</v>
+        <v>41524</v>
       </c>
       <c r="C15" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>75.5</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.5655216657500003</v>
+      </c>
       <c r="G15" t="n">
-        <v>0.3470417482197181</v>
+        <v>1080.966017677954</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1251.048024104083</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2664871358789216</v>
       </c>
     </row>
     <row r="16">
@@ -768,20 +890,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>41501</v>
+        <v>41525</v>
       </c>
       <c r="C16" t="n">
-        <v>10.8</v>
+        <v>20.5</v>
       </c>
       <c r="D16" t="n">
-        <v>74.5</v>
+        <v>59.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.5725910815000002</v>
+      </c>
       <c r="G16" t="n">
-        <v>0.3303178420304052</v>
+        <v>1072.10571016804</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1246.12996618172</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9767147185865788</v>
       </c>
     </row>
     <row r="17">
@@ -789,20 +919,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>41502</v>
+        <v>41526</v>
       </c>
       <c r="C17" t="n">
-        <v>11.65</v>
+        <v>18.05</v>
       </c>
       <c r="D17" t="n">
-        <v>55.5</v>
+        <v>68.5</v>
       </c>
       <c r="E17" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>4.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5797351315000001</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.6098816470780143</v>
+        <v>1063.185669755127</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1241.153485851195</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6522033926538522</v>
       </c>
     </row>
     <row r="18">
@@ -810,20 +948,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>41503</v>
+        <v>41527</v>
       </c>
       <c r="C18" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>84.5</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.5815806594166668</v>
+      </c>
       <c r="G18" t="n">
-        <v>0.2021221316516002</v>
+        <v>1060.886892141495</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1239.866844546269</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2945384133398607</v>
       </c>
     </row>
     <row r="19">
@@ -831,20 +977,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>41504</v>
+        <v>41528</v>
       </c>
       <c r="C19" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D19" t="n">
-        <v>87</v>
+        <v>84.5</v>
       </c>
       <c r="E19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.5877324666666667</v>
+      </c>
       <c r="G19" t="n">
-        <v>0.1847518687278649</v>
+        <v>1053.240732939694</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1235.57484943935</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2145469363935653</v>
       </c>
     </row>
     <row r="20">
@@ -852,20 +1006,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>41505</v>
+        <v>41529</v>
       </c>
       <c r="C20" t="n">
-        <v>8.25</v>
+        <v>12.45</v>
       </c>
       <c r="D20" t="n">
-        <v>79.5</v>
+        <v>81.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5918493400000006</v>
+      </c>
       <c r="G20" t="n">
-        <v>0.2236903018508238</v>
+        <v>1048.138026882144</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1232.699870829974</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2672747154720179</v>
       </c>
     </row>
     <row r="21">
@@ -873,20 +1035,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>41506</v>
+        <v>41530</v>
       </c>
       <c r="C21" t="n">
-        <v>8.15</v>
+        <v>12.85</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5781302065833337</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.07586444418701088</v>
+        <v>1065.18660633492</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1242.272031578425</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1408980949928442</v>
       </c>
     </row>
     <row r="22">
@@ -894,20 +1064,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>41507</v>
+        <v>41531</v>
       </c>
       <c r="C22" t="n">
-        <v>10.05</v>
+        <v>12.85</v>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5828805111666669</v>
+      </c>
       <c r="G22" t="n">
-        <v>0.123208299494374</v>
+        <v>1059.269174342304</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1238.960368421241</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1186510273623951</v>
       </c>
     </row>
     <row r="23">
@@ -915,20 +1093,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>41508</v>
+        <v>41532</v>
       </c>
       <c r="C23" t="n">
-        <v>11.75</v>
+        <v>18.75</v>
       </c>
       <c r="D23" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.588526179</v>
+      </c>
       <c r="G23" t="n">
-        <v>0.1655531389676304</v>
+        <v>1052.256069268239</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1235.020737777558</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.865341665971147</v>
       </c>
     </row>
     <row r="24">
@@ -936,20 +1122,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41509</v>
+        <v>41533</v>
       </c>
       <c r="C24" t="n">
-        <v>11.8</v>
+        <v>14.7</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>83.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5926303840833337</v>
+      </c>
       <c r="G24" t="n">
-        <v>0.1245756404865863</v>
+        <v>1047.171241507473</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1232.154190068009</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2759932571849992</v>
       </c>
     </row>
     <row r="25">
@@ -957,20 +1151,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41510</v>
+        <v>41534</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>88.5</v>
+        <v>86.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.5943261384166671</v>
+      </c>
       <c r="G25" t="n">
-        <v>0.1570895222406818</v>
+        <v>1045.073634084376</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1230.969171400322</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2021990718721918</v>
       </c>
     </row>
     <row r="26">
@@ -978,22 +1180,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>41511</v>
+        <v>41535</v>
       </c>
       <c r="C26" t="n">
-        <v>11.25</v>
+        <v>12.45</v>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>75.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4813327981666671</v>
+        <v>-0.5949139674166668</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2535908476908508</v>
+        <v>1044.34695683915</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1230.558301138881</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3539584069764561</v>
       </c>
     </row>
     <row r="27">
@@ -1001,22 +1209,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>41512</v>
+        <v>41536</v>
       </c>
       <c r="C27" t="n">
-        <v>10.75</v>
+        <v>11.8</v>
       </c>
       <c r="D27" t="n">
-        <v>89.5</v>
+        <v>84</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4916947500000002</v>
+        <v>-0.598445982166667</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1355611104240702</v>
+        <v>1039.985579862514</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1228.088617767104</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2214678053094867</v>
       </c>
     </row>
     <row r="28">
@@ -1024,22 +1238,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>41513</v>
+        <v>41537</v>
       </c>
       <c r="C28" t="n">
-        <v>13.75</v>
+        <v>12.55</v>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>76.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4984080450000005</v>
+        <v>-0.6025813334166669</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4561275715770947</v>
+        <v>1034.889929685316</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1225.195017026488</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3417482289170841</v>
       </c>
     </row>
     <row r="29">
@@ -1047,22 +1267,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>41514</v>
+        <v>41538</v>
       </c>
       <c r="C29" t="n">
         <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>83</v>
+        <v>86.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.505052322583334</v>
+        <v>-0.6078654221666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2717628261022997</v>
+        <v>1028.395681203121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1221.494396852931</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2158116560224144</v>
       </c>
     </row>
     <row r="30">
@@ -1070,22 +1296,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>41515</v>
+        <v>41539</v>
       </c>
       <c r="C30" t="n">
-        <v>14.1</v>
+        <v>12.75</v>
       </c>
       <c r="D30" t="n">
-        <v>84.5</v>
+        <v>90</v>
       </c>
       <c r="E30" t="n">
-        <v>6.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5059663823333338</v>
+        <v>-0.6142562472500003</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2493963080721864</v>
+        <v>1020.56664103615</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1217.013850215974</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1473452336568279</v>
       </c>
     </row>
     <row r="31">
@@ -1093,22 +1325,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>41516</v>
+        <v>41540</v>
       </c>
       <c r="C31" t="n">
-        <v>13.1</v>
+        <v>19.8</v>
       </c>
       <c r="D31" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5085351710833338</v>
+        <v>-0.6199725922500002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1959875508190729</v>
+        <v>1013.587519732172</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1213.001667507445</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.200933889735207</v>
       </c>
     </row>
     <row r="32">
@@ -1116,22 +1354,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>41517</v>
+        <v>41541</v>
       </c>
       <c r="C32" t="n">
-        <v>15.05</v>
+        <v>17.1</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>70.5</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.515410375</v>
+        <v>-0.6278609308333332</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5132530660971444</v>
+        <v>1003.993418111582</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1207.457987959266</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5752627626021953</v>
       </c>
     </row>
     <row r="33">
@@ -1139,22 +1383,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>41518</v>
+        <v>41542</v>
       </c>
       <c r="C33" t="n">
-        <v>17.8</v>
+        <v>15.45</v>
       </c>
       <c r="D33" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5240400157500001</v>
+        <v>-0.6359318060000004</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7337434806598251</v>
+        <v>994.2216873814864</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1201.777558813652</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2457538210610031</v>
       </c>
     </row>
     <row r="34">
@@ -1162,22 +1412,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>41519</v>
+        <v>41543</v>
       </c>
       <c r="C34" t="n">
-        <v>18.15</v>
+        <v>12.3</v>
       </c>
       <c r="D34" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5327231916666669</v>
+        <v>-0.6403667750000005</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4792133301879686</v>
+        <v>988.8712776349214</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1198.652481567178</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.4291654213236624</v>
       </c>
     </row>
     <row r="35">
@@ -1185,22 +1441,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>41520</v>
+        <v>41544</v>
       </c>
       <c r="C35" t="n">
-        <v>20.65</v>
+        <v>13.3</v>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5398952166666668</v>
+        <v>-0.6457409951666669</v>
       </c>
       <c r="G35" t="n">
-        <v>1.095317101304147</v>
+        <v>982.406037832464</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1194.862065829763</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.4582253138707999</v>
       </c>
     </row>
     <row r="36">
@@ -1208,22 +1470,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>41521</v>
+        <v>41545</v>
       </c>
       <c r="C36" t="n">
-        <v>24.6</v>
+        <v>13.85</v>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5495123574166669</v>
+        <v>-0.6494260490833336</v>
       </c>
       <c r="G36" t="n">
-        <v>2.103295304075329</v>
+        <v>977.9844970645271</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1192.26078743884</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3324531309390986</v>
       </c>
     </row>
     <row r="37">
@@ -1231,22 +1499,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>41522</v>
+        <v>41546</v>
       </c>
       <c r="C37" t="n">
-        <v>13.8</v>
+        <v>20.25</v>
       </c>
       <c r="D37" t="n">
-        <v>91</v>
+        <v>50.5</v>
       </c>
       <c r="E37" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5552001065000004</v>
+        <v>-0.6562453621666671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1420177148389838</v>
+        <v>969.8272871927285</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1187.442241207606</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.175483237385939</v>
       </c>
     </row>
     <row r="38">
@@ -1254,22 +1528,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>41523</v>
+        <v>41547</v>
       </c>
       <c r="C38" t="n">
-        <v>12.7</v>
+        <v>17.6</v>
       </c>
       <c r="D38" t="n">
-        <v>89.5</v>
+        <v>54.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5588894657500002</v>
+        <v>-0.6620648409166668</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1542061964033312</v>
+        <v>962.8918133718386</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1183.325233510848</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9157541768954389</v>
       </c>
     </row>
     <row r="39">
@@ -1277,22 +1557,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>41524</v>
+        <v>41548</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D39" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5655216657500003</v>
+        <v>-0.6680011842916671</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2664871358789216</v>
+        <v>955.8415696015322</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1179.120829260651</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.4928235824416735</v>
       </c>
     </row>
     <row r="40">
@@ -1300,22 +1586,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>41525</v>
+        <v>41549</v>
       </c>
       <c r="C40" t="n">
-        <v>20.5</v>
+        <v>12.65</v>
       </c>
       <c r="D40" t="n">
-        <v>59.5</v>
+        <v>77.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5725910815000002</v>
+        <v>-0.6724347215000002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9767147185865788</v>
+        <v>950.5923102491029</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1175.977659436695</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3293600416530365</v>
       </c>
     </row>
     <row r="41">
@@ -1323,22 +1615,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>41526</v>
+        <v>41550</v>
       </c>
       <c r="C41" t="n">
-        <v>18.05</v>
+        <v>10.1</v>
       </c>
       <c r="D41" t="n">
-        <v>68.5</v>
+        <v>88</v>
       </c>
       <c r="E41" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5797351315000001</v>
+        <v>-0.6787564481666674</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6522033926538522</v>
+        <v>943.1314686683578</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1171.491205705454</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1483458626918208</v>
       </c>
     </row>
     <row r="42">
@@ -1346,22 +1644,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>41527</v>
+        <v>41551</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>15.4</v>
       </c>
       <c r="D42" t="n">
-        <v>79</v>
+        <v>61.5</v>
       </c>
       <c r="E42" t="n">
         <v>0.2</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5815806594166668</v>
+        <v>-0.6850397407500003</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2945384133398607</v>
+        <v>935.7440406765028</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1167.026586467925</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6736582956530286</v>
       </c>
     </row>
     <row r="43">
@@ -1369,22 +1673,28 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>41528</v>
+        <v>41552</v>
       </c>
       <c r="C43" t="n">
-        <v>11.8</v>
+        <v>19.85</v>
       </c>
       <c r="D43" t="n">
-        <v>84.5</v>
+        <v>39</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5877324666666667</v>
+        <v>-0.6944982359999998</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2145469363935653</v>
+        <v>924.6763822762963</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1160.295510300244</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.413160940735386</v>
       </c>
     </row>
     <row r="44">
@@ -1392,22 +1702,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>41529</v>
+        <v>41553</v>
       </c>
       <c r="C44" t="n">
-        <v>12.45</v>
+        <v>13.45</v>
       </c>
       <c r="D44" t="n">
         <v>81.5</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5918493400000006</v>
+        <v>-0.7016373669166668</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2672747154720179</v>
+        <v>916.3649669884908</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1155.206732704067</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.2853501659540669</v>
       </c>
     </row>
     <row r="45">
@@ -1415,22 +1731,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41530</v>
+        <v>41554</v>
       </c>
       <c r="C45" t="n">
-        <v>12.85</v>
+        <v>12.75</v>
       </c>
       <c r="D45" t="n">
-        <v>90.5</v>
+        <v>87.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5781302065833337</v>
+        <v>-0.7084961324166671</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1408980949928442</v>
+        <v>908.4143490476888</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1150.311053296348</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1841815420710349</v>
       </c>
     </row>
     <row r="46">
@@ -1438,22 +1760,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>41531</v>
+        <v>41555</v>
       </c>
       <c r="C46" t="n">
-        <v>12.85</v>
+        <v>13.85</v>
       </c>
       <c r="D46" t="n">
-        <v>92</v>
+        <v>83.5</v>
       </c>
       <c r="E46" t="n">
         <v>0.2</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5828805111666669</v>
+        <v>-0.7174470750000005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1186510273623951</v>
+        <v>898.0893797159895</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1143.911990156691</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2612131743092918</v>
       </c>
     </row>
     <row r="47">
@@ -1461,22 +1789,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>41532</v>
+        <v>41556</v>
       </c>
       <c r="C47" t="n">
-        <v>18.75</v>
+        <v>25.25</v>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
+        <v>27.5</v>
       </c>
       <c r="E47" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.588526179</v>
+        <v>-0.7267089230833336</v>
       </c>
       <c r="G47" t="n">
-        <v>0.865341665971147</v>
+        <v>887.4666670413493</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1137.278614428802</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.331061710284884</v>
       </c>
     </row>
     <row r="48">
@@ -1484,22 +1818,28 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>41533</v>
+        <v>41557</v>
       </c>
       <c r="C48" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D48" t="n">
-        <v>83.5</v>
+        <v>80.5</v>
       </c>
       <c r="E48" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5926303840833337</v>
+        <v>-0.7335059783333339</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2759932571849992</v>
+        <v>879.7104552210009</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1132.402674663304</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.317848818465803</v>
       </c>
     </row>
     <row r="49">
@@ -1507,22 +1847,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>41534</v>
+        <v>41558</v>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="D49" t="n">
-        <v>86.5</v>
+        <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5943261384166671</v>
+        <v>-0.7425789500000007</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2021990718721918</v>
+        <v>869.4095324345222</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1125.88362814593</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2768347566368585</v>
       </c>
     </row>
     <row r="50">
@@ -1530,22 +1876,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>41535</v>
+        <v>41559</v>
       </c>
       <c r="C50" t="n">
-        <v>12.45</v>
+        <v>15.05</v>
       </c>
       <c r="D50" t="n">
-        <v>75.5</v>
+        <v>65</v>
       </c>
       <c r="E50" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5949139674166668</v>
+        <v>-0.7499225720833339</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3539584069764561</v>
+        <v>861.11600714221</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1120.598322180064</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.5987952437800017</v>
       </c>
     </row>
     <row r="51">
@@ -1553,22 +1905,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41536</v>
+        <v>41560</v>
       </c>
       <c r="C51" t="n">
-        <v>11.8</v>
+        <v>12.55</v>
       </c>
       <c r="D51" t="n">
-        <v>84</v>
+        <v>74.5</v>
       </c>
       <c r="E51" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.598445982166667</v>
+        <v>-0.7586025844166671</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2214678053094867</v>
+        <v>851.3641666846711</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1114.340940737253</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.3708331845696018</v>
       </c>
     </row>
     <row r="52">
@@ -1576,22 +1934,28 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>41537</v>
+        <v>41561</v>
       </c>
       <c r="C52" t="n">
-        <v>12.55</v>
+        <v>11.25</v>
       </c>
       <c r="D52" t="n">
         <v>76.5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6025813334166669</v>
+        <v>-0.7671144000000002</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3417482289170841</v>
+        <v>841.8550685442769</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1108.193936483686</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3136518379334208</v>
       </c>
     </row>
     <row r="53">
@@ -1599,22 +1963,28 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>41538</v>
+        <v>41562</v>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>11.6</v>
       </c>
       <c r="D53" t="n">
-        <v>86.5</v>
+        <v>70</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6078654221666667</v>
+        <v>-0.7748320315</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2158116560224144</v>
+        <v>833.2793902590663</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1102.61109081113</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.409798753671344</v>
       </c>
     </row>
     <row r="54">
@@ -1622,22 +1992,28 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>41539</v>
+        <v>41563</v>
       </c>
       <c r="C54" t="n">
-        <v>12.75</v>
+        <v>17.35</v>
       </c>
       <c r="D54" t="n">
-        <v>90</v>
+        <v>40.5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6142562472500003</v>
+        <v>-0.7830374700000002</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1473452336568279</v>
+        <v>824.2100051674001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1096.665515316295</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.178771375385659</v>
       </c>
     </row>
     <row r="55">
@@ -1645,22 +2021,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41540</v>
+        <v>41564</v>
       </c>
       <c r="C55" t="n">
-        <v>19.8</v>
+        <v>12.15</v>
       </c>
       <c r="D55" t="n">
-        <v>48</v>
+        <v>69.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.6199725922500002</v>
+        <v>-0.7893747013333335</v>
       </c>
       <c r="G55" t="n">
-        <v>1.200933889735207</v>
+        <v>817.239722305075</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1092.066626531148</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4320315641102614</v>
       </c>
     </row>
     <row r="56">
@@ -1668,22 +2050,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>41541</v>
+        <v>41565</v>
       </c>
       <c r="C56" t="n">
-        <v>17.1</v>
+        <v>13.85</v>
       </c>
       <c r="D56" t="n">
-        <v>70.5</v>
+        <v>55.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6278609308333332</v>
+        <v>-0.7995152555833335</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5752627626021953</v>
+        <v>806.148375511284</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1084.694917246091</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.7044840155614229</v>
       </c>
     </row>
     <row r="57">
@@ -1691,22 +2079,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41542</v>
+        <v>41566</v>
       </c>
       <c r="C57" t="n">
-        <v>15.45</v>
+        <v>19.8</v>
       </c>
       <c r="D57" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E57" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6359318060000004</v>
+        <v>-0.8094696450833336</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2457538210610031</v>
+        <v>795.3353397097869</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1077.443142386996</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.755211069612995</v>
       </c>
     </row>
     <row r="58">
@@ -1714,22 +2108,28 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>41543</v>
+        <v>41567</v>
       </c>
       <c r="C58" t="n">
-        <v>12.3</v>
+        <v>24</v>
       </c>
       <c r="D58" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.6403667750000005</v>
+        <v>-0.8192931980000004</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4291654213236624</v>
+        <v>784.7372345883505</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1070.271612665217</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.23793810787417</v>
       </c>
     </row>
     <row r="59">
@@ -1737,22 +2137,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41544</v>
+        <v>41568</v>
       </c>
       <c r="C59" t="n">
-        <v>13.3</v>
+        <v>17.4</v>
       </c>
       <c r="D59" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6457409951666669</v>
+        <v>-0.8265830329166671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4582253138707999</v>
+        <v>776.9195207310258</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1064.940045842073</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.4571013534474913</v>
       </c>
     </row>
     <row r="60">
@@ -1760,22 +2166,28 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>41545</v>
+        <v>41569</v>
       </c>
       <c r="C60" t="n">
-        <v>13.85</v>
+        <v>16.45</v>
       </c>
       <c r="D60" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6494260490833336</v>
+        <v>-0.8317364817500006</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3324531309390986</v>
+        <v>771.4170631712275</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1061.165937603195</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2432576473030053</v>
       </c>
     </row>
     <row r="61">
@@ -1783,22 +2195,28 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>41546</v>
+        <v>41570</v>
       </c>
       <c r="C61" t="n">
-        <v>20.25</v>
+        <v>11.45</v>
       </c>
       <c r="D61" t="n">
-        <v>50.5</v>
+        <v>82</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6562453621666671</v>
+        <v>-0.8386137750000001</v>
       </c>
       <c r="G61" t="n">
-        <v>1.175483237385939</v>
+        <v>764.105266934009</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1056.122862302099</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.2434500647921394</v>
       </c>
     </row>
     <row r="62">
@@ -1806,22 +2224,28 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>41547</v>
+        <v>41571</v>
       </c>
       <c r="C62" t="n">
-        <v>17.6</v>
+        <v>10.4</v>
       </c>
       <c r="D62" t="n">
-        <v>54.5</v>
+        <v>69.5</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6620648409166668</v>
+        <v>-0.8462803416666672</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9157541768954389</v>
+        <v>755.9965357178241</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1050.492202632592</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3846866158754363</v>
       </c>
     </row>
     <row r="63">
@@ -1829,22 +2253,28 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>41548</v>
+        <v>41572</v>
       </c>
       <c r="C63" t="n">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E63" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.6680011842916671</v>
+        <v>-0.8555182740833338</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4928235824416735</v>
+        <v>746.2850697711995</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1043.695064863227</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1684891391901817</v>
       </c>
     </row>
     <row r="64">
@@ -1852,22 +2282,28 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>41549</v>
+        <v>41573</v>
       </c>
       <c r="C64" t="n">
         <v>12.65</v>
       </c>
       <c r="D64" t="n">
-        <v>77.5</v>
+        <v>73.5</v>
       </c>
       <c r="E64" t="n">
-        <v>4.399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.6724347215000002</v>
+        <v>-0.8646285990833336</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3293600416530365</v>
+        <v>736.7713545244997</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1036.978491006108</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3879129379469097</v>
       </c>
     </row>
     <row r="65">
@@ -1875,22 +2311,28 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>41550</v>
+        <v>41574</v>
       </c>
       <c r="C65" t="n">
-        <v>10.1</v>
+        <v>18.4</v>
       </c>
       <c r="D65" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.6787564481666674</v>
+        <v>-0.8710815000000005</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1483458626918208</v>
+        <v>730.0710370400643</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1032.213063375066</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7830956783562637</v>
       </c>
     </row>
     <row r="66">
@@ -1898,22 +2340,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>41551</v>
+        <v>41575</v>
       </c>
       <c r="C66" t="n">
-        <v>15.4</v>
+        <v>13.8</v>
       </c>
       <c r="D66" t="n">
-        <v>61.5</v>
+        <v>75</v>
       </c>
       <c r="E66" t="n">
         <v>0.2</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6850397407500003</v>
+        <v>-0.8718789043333333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6736582956530286</v>
+        <v>729.2452675209136</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1031.623721599773</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3944936523305109</v>
       </c>
     </row>
     <row r="67">
@@ -1921,22 +2369,28 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>41552</v>
+        <v>41576</v>
       </c>
       <c r="C67" t="n">
-        <v>19.85</v>
+        <v>12.9</v>
       </c>
       <c r="D67" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6944982359999998</v>
+        <v>-0.8812097083333338</v>
       </c>
       <c r="G67" t="n">
-        <v>1.413160940735386</v>
+        <v>719.6187125736603</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1024.719963614178</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.4464004563192525</v>
       </c>
     </row>
     <row r="68">
@@ -1944,22 +2398,28 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>41553</v>
+        <v>41577</v>
       </c>
       <c r="C68" t="n">
-        <v>13.45</v>
+        <v>13.15</v>
       </c>
       <c r="D68" t="n">
-        <v>81.5</v>
+        <v>69.5</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7016373669166668</v>
+        <v>-0.8896521416666671</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2853501659540669</v>
+        <v>710.9662051818111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1018.461424893151</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.4613218175795673</v>
       </c>
     </row>
     <row r="69">
@@ -1967,22 +2427,28 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>41554</v>
+        <v>41578</v>
       </c>
       <c r="C69" t="n">
-        <v>12.75</v>
+        <v>13.45</v>
       </c>
       <c r="D69" t="n">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7084961324166671</v>
+        <v>-0.9004400583333336</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1841815420710349</v>
+        <v>699.9895841454259</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1010.44739966355</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3856083323703605</v>
       </c>
     </row>
     <row r="70">
@@ -1990,22 +2456,28 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>41555</v>
+        <v>41579</v>
       </c>
       <c r="C70" t="n">
-        <v>13.85</v>
+        <v>16.8</v>
       </c>
       <c r="D70" t="n">
-        <v>83.5</v>
+        <v>60</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7174470750000005</v>
+        <v>-0.9104144500000003</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2612131743092918</v>
+        <v>689.9205164459845</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1003.020986531228</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.7653222778036488</v>
       </c>
     </row>
     <row r="71">
@@ -2013,22 +2485,28 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>41556</v>
+        <v>41580</v>
       </c>
       <c r="C71" t="n">
-        <v>25.25</v>
+        <v>18.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27.5</v>
+        <v>62</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7267089230833336</v>
+        <v>-0.9217151666666668</v>
       </c>
       <c r="G71" t="n">
-        <v>2.331061710284884</v>
+        <v>678.6054284793802</v>
+      </c>
+      <c r="H71" t="n">
+        <v>994.5876194472277</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7892609951178695</v>
       </c>
     </row>
     <row r="72">
@@ -2036,22 +2514,28 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>41557</v>
+        <v>41581</v>
       </c>
       <c r="C72" t="n">
-        <v>14.3</v>
+        <v>13.75</v>
       </c>
       <c r="D72" t="n">
-        <v>80.5</v>
+        <v>65</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7335059783333339</v>
+        <v>-0.9336921740833339</v>
       </c>
       <c r="G72" t="n">
-        <v>0.317848818465803</v>
+        <v>666.7212012088191</v>
+      </c>
+      <c r="H72" t="n">
+        <v>985.6270170887702</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.5504987932827006</v>
       </c>
     </row>
     <row r="73">
@@ -2059,22 +2543,28 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>41558</v>
+        <v>41582</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
       <c r="D73" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7425789500000007</v>
+        <v>-0.9445252833333337</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2768347566368585</v>
+        <v>656.0679969837217</v>
+      </c>
+      <c r="H73" t="n">
+        <v>977.5022695003995</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.5208005323724612</v>
       </c>
     </row>
     <row r="74">
@@ -2082,22 +2572,28 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>41559</v>
+        <v>41583</v>
       </c>
       <c r="C74" t="n">
-        <v>15.05</v>
+        <v>19.05</v>
       </c>
       <c r="D74" t="n">
-        <v>65</v>
+        <v>48.5</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7499225720833339</v>
+        <v>-0.9558851972500002</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5987952437800017</v>
+        <v>644.9949142504249</v>
+      </c>
+      <c r="H74" t="n">
+        <v>968.9621157311989</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.135192408486005</v>
       </c>
     </row>
     <row r="75">
@@ -2105,22 +2601,28 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>41560</v>
+        <v>41584</v>
       </c>
       <c r="C75" t="n">
-        <v>12.55</v>
+        <v>25.25</v>
       </c>
       <c r="D75" t="n">
-        <v>74.5</v>
+        <v>24.5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.7586025844166671</v>
+        <v>-0.9683716095833337</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3708331845696018</v>
+        <v>632.940010026864</v>
+      </c>
+      <c r="H75" t="n">
+        <v>959.551191803962</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.427519436227707</v>
       </c>
     </row>
     <row r="76">
@@ -2128,22 +2630,28 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>41561</v>
+        <v>41585</v>
       </c>
       <c r="C76" t="n">
-        <v>11.25</v>
+        <v>16.3</v>
       </c>
       <c r="D76" t="n">
-        <v>76.5</v>
+        <v>80</v>
       </c>
       <c r="E76" t="n">
         <v>0.4</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7671144000000002</v>
+        <v>-0.9777372721666666</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3136518379334208</v>
+        <v>623.9780759459215</v>
+      </c>
+      <c r="H76" t="n">
+        <v>952.4760148108263</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3706845298411476</v>
       </c>
     </row>
     <row r="77">
@@ -2151,22 +2659,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>41562</v>
+        <v>41586</v>
       </c>
       <c r="C77" t="n">
-        <v>11.6</v>
+        <v>13.25</v>
       </c>
       <c r="D77" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.7748320315</v>
+        <v>-0.9848839058333336</v>
       </c>
       <c r="G77" t="n">
-        <v>0.409798753671344</v>
+        <v>617.1857662882237</v>
+      </c>
+      <c r="H77" t="n">
+        <v>947.0678044321927</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2588149868072958</v>
       </c>
     </row>
     <row r="78">
@@ -2174,22 +2688,28 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>41563</v>
+        <v>41587</v>
       </c>
       <c r="C78" t="n">
-        <v>17.35</v>
+        <v>11.3</v>
       </c>
       <c r="D78" t="n">
-        <v>40.5</v>
+        <v>66.5</v>
       </c>
       <c r="E78" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.7830374700000002</v>
+        <v>-0.9937824639166672</v>
       </c>
       <c r="G78" t="n">
-        <v>1.178771375385659</v>
+        <v>608.7844373149278</v>
+      </c>
+      <c r="H78" t="n">
+        <v>940.3225499732413</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.448605923398949</v>
       </c>
     </row>
     <row r="79">
@@ -2197,22 +2717,28 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>41564</v>
+        <v>41588</v>
       </c>
       <c r="C79" t="n">
-        <v>12.15</v>
+        <v>10.9</v>
       </c>
       <c r="D79" t="n">
-        <v>69.5</v>
+        <v>78.5</v>
       </c>
       <c r="E79" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.7893747013333335</v>
+        <v>-1.00338246575</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4320315641102614</v>
+        <v>599.7906709775898</v>
+      </c>
+      <c r="H79" t="n">
+        <v>933.0316548062149</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.2803629568070583</v>
       </c>
     </row>
     <row r="80">
@@ -2220,22 +2746,28 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>41565</v>
+        <v>41589</v>
       </c>
       <c r="C80" t="n">
-        <v>13.85</v>
+        <v>13.4</v>
       </c>
       <c r="D80" t="n">
-        <v>55.5</v>
+        <v>74</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.7995152555833335</v>
+        <v>-1.012240549083333</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7044840155614229</v>
+        <v>591.5563422672756</v>
+      </c>
+      <c r="H80" t="n">
+        <v>926.2914939669862</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3997275862735863</v>
       </c>
     </row>
     <row r="81">
@@ -2243,22 +2775,28 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>41566</v>
+        <v>41590</v>
       </c>
       <c r="C81" t="n">
-        <v>19.8</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8094696450833336</v>
+        <v>-1.021980465750001</v>
       </c>
       <c r="G81" t="n">
-        <v>1.755211069612995</v>
+        <v>582.5736948852229</v>
+      </c>
+      <c r="H81" t="n">
+        <v>918.8663684690839</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.3676791176678171</v>
       </c>
     </row>
     <row r="82">
@@ -2266,22 +2804,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>41567</v>
+        <v>41591</v>
       </c>
       <c r="C82" t="n">
-        <v>24</v>
+        <v>13.65</v>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>71.5</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.8192931980000004</v>
+        <v>-1.029915874083334</v>
       </c>
       <c r="G82" t="n">
-        <v>2.23793810787417</v>
+        <v>575.3106288821157</v>
+      </c>
+      <c r="H82" t="n">
+        <v>912.8061763590021</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.4453568449442</v>
       </c>
     </row>
     <row r="83">
@@ -2289,22 +2833,28 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>41568</v>
+        <v>41592</v>
       </c>
       <c r="C83" t="n">
-        <v>17.4</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8265830329166671</v>
+        <v>-1.03986081575</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4571013534474913</v>
+        <v>566.2785786032073</v>
+      </c>
+      <c r="H83" t="n">
+        <v>905.1978915894294</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.4792866888822322</v>
       </c>
     </row>
     <row r="84">
@@ -2312,22 +2862,28 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>41569</v>
+        <v>41593</v>
       </c>
       <c r="C84" t="n">
-        <v>16.45</v>
+        <v>12.85</v>
       </c>
       <c r="D84" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.8317364817500006</v>
+        <v>-1.05035964075</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2432576473030053</v>
+        <v>556.8284315621086</v>
+      </c>
+      <c r="H84" t="n">
+        <v>897.1498576126011</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3559530820871857</v>
       </c>
     </row>
     <row r="85">
@@ -2335,22 +2891,28 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>41570</v>
+        <v>41594</v>
       </c>
       <c r="C85" t="n">
-        <v>11.45</v>
+        <v>13.9</v>
       </c>
       <c r="D85" t="n">
-        <v>82</v>
+        <v>75.5</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8386137750000001</v>
+        <v>-1.05861235</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2434500647921394</v>
+        <v>549.4613599060788</v>
+      </c>
+      <c r="H85" t="n">
+        <v>890.812241962798</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.3891237844319366</v>
       </c>
     </row>
     <row r="86">
@@ -2358,22 +2920,28 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>41571</v>
+        <v>41595</v>
       </c>
       <c r="C86" t="n">
-        <v>10.4</v>
+        <v>13.45</v>
       </c>
       <c r="D86" t="n">
-        <v>69.5</v>
+        <v>73.5</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8462803416666672</v>
+        <v>-1.068265289833334</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3846866158754363</v>
+        <v>540.9128761604939</v>
+      </c>
+      <c r="H86" t="n">
+        <v>883.3868195870941</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.4087448323125822</v>
       </c>
     </row>
     <row r="87">
@@ -2381,22 +2949,28 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>41572</v>
+        <v>41596</v>
       </c>
       <c r="C87" t="n">
-        <v>9.699999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>57.5</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8555182740833338</v>
+        <v>-1.078133270500001</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1684891391901817</v>
+        <v>532.2504298992183</v>
+      </c>
+      <c r="H87" t="n">
+        <v>875.7822706461974</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.8995017927065192</v>
       </c>
     </row>
     <row r="88">
@@ -2404,22 +2978,28 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>41573</v>
+        <v>41597</v>
       </c>
       <c r="C88" t="n">
-        <v>12.65</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>73.5</v>
+        <v>62.5</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8646285990833336</v>
+        <v>-1.0892354485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3879129379469097</v>
+        <v>522.5970772711823</v>
+      </c>
+      <c r="H88" t="n">
+        <v>867.2103783743524</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.6818575051820814</v>
       </c>
     </row>
     <row r="89">
@@ -2427,22 +3007,28 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>41574</v>
+        <v>41598</v>
       </c>
       <c r="C89" t="n">
-        <v>18.4</v>
+        <v>13.2</v>
       </c>
       <c r="D89" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E89" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8710815000000005</v>
+        <v>-1.10185242475</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7830956783562637</v>
+        <v>511.7456351095011</v>
+      </c>
+      <c r="H89" t="n">
+        <v>857.448561098971</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.2883209572950789</v>
       </c>
     </row>
     <row r="90">
@@ -2450,22 +3036,28 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>41575</v>
+        <v>41599</v>
       </c>
       <c r="C90" t="n">
-        <v>13.8</v>
+        <v>11.75</v>
       </c>
       <c r="D90" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8718789043333333</v>
+        <v>-1.110669725</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3944936523305109</v>
+        <v>504.2373969179578</v>
+      </c>
+      <c r="H90" t="n">
+        <v>850.6140449933376</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3862906575911375</v>
       </c>
     </row>
     <row r="91">
@@ -2473,22 +3065,28 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>41576</v>
+        <v>41600</v>
       </c>
       <c r="C91" t="n">
-        <v>12.9</v>
+        <v>11.95</v>
       </c>
       <c r="D91" t="n">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8812097083333338</v>
+        <v>-1.119209432416667</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4464004563192525</v>
+        <v>497.0245767957631</v>
+      </c>
+      <c r="H91" t="n">
+        <v>843.9851297977813</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.2446406106258305</v>
       </c>
     </row>
     <row r="92">
@@ -2496,22 +3094,28 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>41577</v>
+        <v>41601</v>
       </c>
       <c r="C92" t="n">
-        <v>13.15</v>
+        <v>12.45</v>
       </c>
       <c r="D92" t="n">
-        <v>69.5</v>
+        <v>82.5</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8896521416666671</v>
+        <v>-1.125714589833334</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4613218175795673</v>
+        <v>491.5691799685308</v>
+      </c>
+      <c r="H92" t="n">
+        <v>838.9293507042313</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.2528274335546115</v>
       </c>
     </row>
     <row r="93">
@@ -2519,22 +3123,28 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>41578</v>
+        <v>41602</v>
       </c>
       <c r="C93" t="n">
-        <v>13.45</v>
+        <v>13.25</v>
       </c>
       <c r="D93" t="n">
-        <v>75</v>
+        <v>68.5</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9004400583333336</v>
+        <v>-1.133795424083334</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3856083323703605</v>
+        <v>484.8393635204643</v>
+      </c>
+      <c r="H93" t="n">
+        <v>832.6416991193364</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.4795689461429302</v>
       </c>
     </row>
     <row r="94">
@@ -2542,22 +3152,28 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>41579</v>
+        <v>41603</v>
       </c>
       <c r="C94" t="n">
-        <v>16.8</v>
+        <v>19.65</v>
       </c>
       <c r="D94" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9104144500000003</v>
+        <v>-1.144353600166667</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7653222778036488</v>
+        <v>476.1248597848783</v>
+      </c>
+      <c r="H94" t="n">
+        <v>824.4146450274817</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.281334563125783</v>
       </c>
     </row>
     <row r="95">
@@ -2565,22 +3181,28 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>41580</v>
+        <v>41604</v>
       </c>
       <c r="C95" t="n">
-        <v>18.1</v>
+        <v>26.6</v>
       </c>
       <c r="D95" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.9217151666666668</v>
+        <v>-1.1554524285</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7892609951178695</v>
+        <v>467.0599907487917</v>
+      </c>
+      <c r="H95" t="n">
+        <v>815.7524006378684</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.22881465053184</v>
       </c>
     </row>
     <row r="96">
@@ -2588,22 +3210,28 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>41581</v>
+        <v>41605</v>
       </c>
       <c r="C96" t="n">
-        <v>13.75</v>
+        <v>28.2</v>
       </c>
       <c r="D96" t="n">
-        <v>65</v>
+        <v>28.5</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.9336921740833339</v>
+        <v>-1.168003242583334</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5504987932827006</v>
+        <v>456.927651618905</v>
+      </c>
+      <c r="H96" t="n">
+        <v>805.9405090792054</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.734282992908646</v>
       </c>
     </row>
     <row r="97">
@@ -2611,22 +3239,28 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>41582</v>
+        <v>41606</v>
       </c>
       <c r="C97" t="n">
-        <v>12.9</v>
+        <v>15.1</v>
       </c>
       <c r="D97" t="n">
-        <v>65</v>
+        <v>81.5</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.9445252833333337</v>
+        <v>-1.18100774575</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5208005323724612</v>
+        <v>446.561659582042</v>
+      </c>
+      <c r="H97" t="n">
+        <v>795.7565004828807</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.317525935424859</v>
       </c>
     </row>
     <row r="98">
@@ -2634,22 +3268,28 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>41583</v>
+        <v>41607</v>
       </c>
       <c r="C98" t="n">
-        <v>19.05</v>
+        <v>13.65</v>
       </c>
       <c r="D98" t="n">
-        <v>48.5</v>
+        <v>72.5</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9558851972500002</v>
+        <v>-1.18744276575</v>
       </c>
       <c r="G98" t="n">
-        <v>1.135192408486005</v>
+        <v>441.4821716660233</v>
+      </c>
+      <c r="H98" t="n">
+        <v>790.7109125076836</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.4297302889812455</v>
       </c>
     </row>
     <row r="99">
@@ -2657,22 +3297,28 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>41584</v>
+        <v>41608</v>
       </c>
       <c r="C99" t="n">
-        <v>25.25</v>
+        <v>18.6</v>
       </c>
       <c r="D99" t="n">
-        <v>24.5</v>
+        <v>51</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.9683716095833337</v>
+        <v>-1.198769758333334</v>
       </c>
       <c r="G99" t="n">
-        <v>2.427519436227707</v>
+        <v>432.6214769955507</v>
+      </c>
+      <c r="H99" t="n">
+        <v>781.8201213178535</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.050144928089951</v>
       </c>
     </row>
     <row r="100">
@@ -2680,22 +3326,28 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>41585</v>
+        <v>41609</v>
       </c>
       <c r="C100" t="n">
-        <v>16.3</v>
+        <v>20.75</v>
       </c>
       <c r="D100" t="n">
-        <v>80</v>
+        <v>48.5</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9777372721666666</v>
+        <v>-1.21302772</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3706845298411476</v>
+        <v>421.6135141576117</v>
+      </c>
+      <c r="H100" t="n">
+        <v>770.6125967977791</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.261271031391278</v>
       </c>
     </row>
     <row r="101">
@@ -2703,22 +3355,28 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>41586</v>
+        <v>41610</v>
       </c>
       <c r="C101" t="n">
-        <v>13.25</v>
+        <v>18.95</v>
       </c>
       <c r="D101" t="n">
-        <v>83</v>
+        <v>68.5</v>
       </c>
       <c r="E101" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.9848839058333336</v>
+        <v>-1.221868565166667</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2588149868072958</v>
+        <v>414.8693138935287</v>
+      </c>
+      <c r="H101" t="n">
+        <v>763.6548353151162</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.6900226990082294</v>
       </c>
     </row>
     <row r="102">
@@ -2726,22 +3384,28 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>41587</v>
+        <v>41611</v>
       </c>
       <c r="C102" t="n">
-        <v>11.3</v>
+        <v>19.9</v>
       </c>
       <c r="D102" t="n">
         <v>66.5</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.9937824639166672</v>
+        <v>-1.2327910275</v>
       </c>
       <c r="G102" t="n">
-        <v>0.448605923398949</v>
+        <v>406.6232078979683</v>
+      </c>
+      <c r="H102" t="n">
+        <v>755.050699515596</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7784883308800994</v>
       </c>
     </row>
     <row r="103">
@@ -2749,22 +3413,28 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>41588</v>
+        <v>41612</v>
       </c>
       <c r="C103" t="n">
-        <v>10.9</v>
+        <v>14.95</v>
       </c>
       <c r="D103" t="n">
-        <v>78.5</v>
+        <v>73</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>-1.00338246575</v>
+        <v>-1.243756912250001</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2803629568070583</v>
+        <v>398.4399490889241</v>
+      </c>
+      <c r="H103" t="n">
+        <v>746.4040652928941</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.4589633895866361</v>
       </c>
     </row>
     <row r="104">
@@ -2772,22 +3442,28 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>41589</v>
+        <v>41613</v>
       </c>
       <c r="C104" t="n">
-        <v>13.4</v>
+        <v>12.95</v>
       </c>
       <c r="D104" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.012240549083333</v>
+        <v>-1.250324461083334</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3997275862735863</v>
+        <v>393.5847884399393</v>
+      </c>
+      <c r="H104" t="n">
+        <v>741.2219014326342</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.4030773830683572</v>
       </c>
     </row>
     <row r="105">
@@ -2795,22 +3471,28 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>41590</v>
+        <v>41614</v>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>14.15</v>
       </c>
       <c r="D105" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.021980465750001</v>
+        <v>-1.258205075</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3676791176678171</v>
+        <v>387.8042379229917</v>
+      </c>
+      <c r="H105" t="n">
+        <v>735.0003814597185</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.242134870186425</v>
       </c>
     </row>
     <row r="106">
@@ -2818,22 +3500,28 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>41591</v>
+        <v>41615</v>
       </c>
       <c r="C106" t="n">
-        <v>13.65</v>
+        <v>20.9</v>
       </c>
       <c r="D106" t="n">
-        <v>71.5</v>
+        <v>56</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.029915874083334</v>
+        <v>-1.266546829083334</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4453568449442</v>
+        <v>381.7392589333908</v>
+      </c>
+      <c r="H106" t="n">
+        <v>728.4112596636212</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.087578819633962</v>
       </c>
     </row>
     <row r="107">
@@ -2841,22 +3529,28 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>41592</v>
+        <v>41616</v>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-1.03986081575</v>
+        <v>-1.281252547583334</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4792866888822322</v>
+        <v>371.1819731852333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>716.787600743722</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.964022184854245</v>
       </c>
     </row>
     <row r="108">
@@ -2864,22 +3558,28 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>41593</v>
+        <v>41617</v>
       </c>
       <c r="C108" t="n">
-        <v>12.85</v>
+        <v>16.2</v>
       </c>
       <c r="D108" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>-1.05035964075</v>
+        <v>-1.291048741833334</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3559530820871857</v>
+        <v>364.2445449108386</v>
+      </c>
+      <c r="H108" t="n">
+        <v>709.0400306623908</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.4235783799960924</v>
       </c>
     </row>
     <row r="109">
@@ -2887,22 +3587,28 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>41594</v>
+        <v>41618</v>
       </c>
       <c r="C109" t="n">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="D109" t="n">
-        <v>75.5</v>
+        <v>72</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.05861235</v>
+        <v>-1.303757449333333</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3891237844319366</v>
+        <v>355.3579495885231</v>
+      </c>
+      <c r="H109" t="n">
+        <v>698.9849960078915</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.4805797941565433</v>
       </c>
     </row>
     <row r="110">
@@ -2910,22 +3616,28 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>41595</v>
+        <v>41619</v>
       </c>
       <c r="C110" t="n">
-        <v>13.45</v>
+        <v>15.45</v>
       </c>
       <c r="D110" t="n">
-        <v>73.5</v>
+        <v>85</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>-1.068265289833334</v>
+        <v>-1.3120475065</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4087448323125822</v>
+        <v>349.6300508315037</v>
+      </c>
+      <c r="H110" t="n">
+        <v>692.4241968056477</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.2633076654225035</v>
       </c>
     </row>
     <row r="111">
@@ -2933,22 +3645,28 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>41596</v>
+        <v>41620</v>
       </c>
       <c r="C111" t="n">
-        <v>18.4</v>
+        <v>15.4</v>
       </c>
       <c r="D111" t="n">
-        <v>57.5</v>
+        <v>76</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-1.078133270500001</v>
+        <v>-1.320928424083333</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8995017927065192</v>
+        <v>343.5542266040791</v>
+      </c>
+      <c r="H111" t="n">
+        <v>685.3948366837832</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.419942833653836</v>
       </c>
     </row>
     <row r="112">
@@ -2956,22 +3674,28 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>41597</v>
+        <v>41621</v>
       </c>
       <c r="C112" t="n">
-        <v>16</v>
+        <v>16.25</v>
       </c>
       <c r="D112" t="n">
-        <v>62.5</v>
+        <v>78.5</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-1.0892354485</v>
+        <v>-1.327045658333333</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6818575051820814</v>
+        <v>339.4054141388262</v>
+      </c>
+      <c r="H112" t="n">
+        <v>680.5526826337483</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.3972180182425029</v>
       </c>
     </row>
     <row r="113">
@@ -2979,22 +3703,28 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>41598</v>
+        <v>41622</v>
       </c>
       <c r="C113" t="n">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
       <c r="D113" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.10185242475</v>
+        <v>-1.333204766666667</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2883209572950789</v>
+        <v>335.2580517113502</v>
+      </c>
+      <c r="H113" t="n">
+        <v>675.6773672580346</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.5185327862263622</v>
       </c>
     </row>
     <row r="114">
@@ -3002,910 +3732,28 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>41599</v>
+        <v>41623</v>
       </c>
       <c r="C114" t="n">
-        <v>11.75</v>
+        <v>15.05</v>
       </c>
       <c r="D114" t="n">
-        <v>72</v>
+        <v>74.5</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-1.110669725</v>
+        <v>-1.344173299999999</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3862906575911375</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>41600</v>
-      </c>
-      <c r="C115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D115" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-1.119209432416667</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.2446406106258305</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>41601</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="D116" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-1.125714589833334</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.2528274335546115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>41602</v>
-      </c>
-      <c r="C117" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="D117" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-1.133795424083334</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.4795689461429302</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>41603</v>
-      </c>
-      <c r="C118" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="D118" t="n">
-        <v>44</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-1.144353600166667</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.281334563125783</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>41604</v>
-      </c>
-      <c r="C119" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>36</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-1.1554524285</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2.22881465053184</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>41605</v>
-      </c>
-      <c r="C120" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-1.168003242583334</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.734282992908646</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>41606</v>
-      </c>
-      <c r="C121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-1.18100774575</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.317525935424859</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>41607</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D122" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>-1.18744276575</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.4297302889812455</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>41608</v>
-      </c>
-      <c r="C123" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>51</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-1.198769758333334</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.050144928089951</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>41609</v>
-      </c>
-      <c r="C124" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="D124" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-1.21302772</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.261271031391278</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>41610</v>
-      </c>
-      <c r="C125" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="D125" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-1.221868565166667</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.6900226990082294</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>41611</v>
-      </c>
-      <c r="C126" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-1.2327910275</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.7784883308800994</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2" t="n">
-        <v>41612</v>
-      </c>
-      <c r="C127" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="D127" t="n">
-        <v>73</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-1.243756912250001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.4589633895866361</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2" t="n">
-        <v>41613</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="D128" t="n">
-        <v>73</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-1.250324461083334</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.4030773830683572</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2" t="n">
-        <v>41614</v>
-      </c>
-      <c r="C129" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="D129" t="n">
-        <v>85</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-1.258205075</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.242134870186425</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>41615</v>
-      </c>
-      <c r="C130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>56</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-1.266546829083334</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.087578819633962</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2" t="n">
-        <v>41616</v>
-      </c>
-      <c r="C131" t="n">
-        <v>25</v>
-      </c>
-      <c r="D131" t="n">
-        <v>38</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-1.281252547583334</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.964022184854245</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2" t="n">
-        <v>41617</v>
-      </c>
-      <c r="C132" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>77</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-1.291048741833334</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.4235783799960924</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2" t="n">
-        <v>41618</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>72</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-1.303757449333333</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.4805797941565433</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2" t="n">
-        <v>41619</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="D134" t="n">
-        <v>85</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-1.3120475065</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.2633076654225035</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2" t="n">
-        <v>41620</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>76</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-1.320928424083333</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.419942833653836</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2" t="n">
-        <v>41621</v>
-      </c>
-      <c r="C136" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="D136" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-1.327045658333333</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.3972180182425029</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2" t="n">
-        <v>41622</v>
-      </c>
-      <c r="C137" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>69</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-1.333204766666667</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.5185327862263622</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2" t="n">
-        <v>41623</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="D138" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-1.344173299999999</v>
-      </c>
-      <c r="G138" t="n">
+        <v>327.9462455707717</v>
+      </c>
+      <c r="H114" t="n">
+        <v>666.9956662298697</v>
+      </c>
+      <c r="I114" t="n">
         <v>0.4362651061825726</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>41624</v>
-      </c>
-      <c r="C139" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D139" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="n">
-        <v>0.531600842126321</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2" t="n">
-        <v>41625</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="D140" t="n">
-        <v>43</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="n">
-        <v>1.548874715789955</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2" t="n">
-        <v>41626</v>
-      </c>
-      <c r="C141" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="D141" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="n">
-        <v>3.218122000710461</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2" t="n">
-        <v>41627</v>
-      </c>
-      <c r="C142" t="n">
-        <v>30.55</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="n">
-        <v>3.196502179141588</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2" t="n">
-        <v>41628</v>
-      </c>
-      <c r="C143" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="D143" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="n">
-        <v>1.484414293589843</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2" t="n">
-        <v>41629</v>
-      </c>
-      <c r="C144" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="D144" t="n">
-        <v>72</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="n">
-        <v>0.6731804374622072</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>41630</v>
-      </c>
-      <c r="C145" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="D145" t="n">
-        <v>80</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="n">
-        <v>0.4193314818595577</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>41631</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>69</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="n">
-        <v>0.545917098417229</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2" t="n">
-        <v>41632</v>
-      </c>
-      <c r="C147" t="n">
-        <v>19</v>
-      </c>
-      <c r="D147" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="n">
-        <v>1.043761828845625</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2" t="n">
-        <v>41633</v>
-      </c>
-      <c r="C148" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>39</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="n">
-        <v>1.798453426063472</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2" t="n">
-        <v>41634</v>
-      </c>
-      <c r="C149" t="n">
-        <v>17</v>
-      </c>
-      <c r="D149" t="n">
-        <v>69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="n">
-        <v>0.600696099079838</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2" t="n">
-        <v>41635</v>
-      </c>
-      <c r="C150" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="n">
-        <v>1.659019232297122</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2" t="n">
-        <v>41636</v>
-      </c>
-      <c r="C151" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="D151" t="n">
-        <v>52</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="n">
-        <v>1.419435651319311</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2" t="n">
-        <v>41637</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="n">
-        <v>0.6510635784039407</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2" t="n">
-        <v>41638</v>
-      </c>
-      <c r="C153" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="D153" t="n">
-        <v>56</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="n">
-        <v>0.8883611426742701</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2" t="n">
-        <v>41639</v>
-      </c>
-      <c r="C154" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>79</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="n">
-        <v>0.3378917722268329</v>
       </c>
     </row>
   </sheetData>
